--- a/111 (1).xlsx
+++ b/111 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GUI\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF82FCFC-445A-43F9-834A-3EAA558E6428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58EF4CA-27AE-4FCB-8237-356C086D7BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="990">
   <si>
     <t>年度代碼</t>
   </si>
@@ -2987,6 +2987,10 @@
   </si>
   <si>
     <t>已經戒菸，戒了20年個月</t>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3407,7 +3411,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3434,8 +3438,8 @@
     <col min="20" max="20" width="12.125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="1" customWidth="1"/>
     <col min="22" max="22" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="8.75" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.75" style="1"/>
+    <col min="23" max="35" width="8.75" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4244,7 +4248,7 @@
         <v>195</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>989</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>196</v>
